--- a/FAO7.xlsx
+++ b/FAO7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samsung\Dropbox\UIUC\QSDsan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6ED756-5FDC-40C9-8917-1C56B9468C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35499409-8C68-4517-8216-9709D7C7C2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{86C8692A-08AF-4241-A7C4-31F8C59B90AF}"/>
   </bookViews>
@@ -121,9 +121,6 @@
     <t>Costa Rica</t>
   </si>
   <si>
-    <t>C척te d'Ivoire</t>
-  </si>
-  <si>
     <t>Croatia</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   <si>
     <t>Importing</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
 </sst>
 </file>
@@ -1187,18 +1187,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3713868-19D3-469C-B670-90386EE1752B}">
   <dimension ref="A1:D607"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A518" workbookViewId="0">
+      <selection activeCell="A532" sqref="A532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" t="s">
-        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
         <v>15</v>
@@ -1996,7 +1996,7 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
@@ -2010,7 +2010,7 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
@@ -2066,7 +2066,7 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s">
         <v>15</v>
@@ -2122,7 +2122,7 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
@@ -2136,7 +2136,7 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C68" t="s">
         <v>15</v>
@@ -2150,7 +2150,7 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
@@ -2164,7 +2164,7 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B75" t="s">
         <v>21</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B80" t="s">
         <v>25</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" t="s">
         <v>39</v>
-      </c>
-      <c r="B81" t="s">
-        <v>40</v>
       </c>
       <c r="C81" t="s">
         <v>15</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" t="s">
         <v>39</v>
-      </c>
-      <c r="B82" t="s">
-        <v>40</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C84" t="s">
         <v>19</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C86" t="s">
         <v>15</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B91" t="s">
         <v>29</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B92" t="s">
         <v>29</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B93" t="s">
         <v>29</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B94" t="s">
         <v>29</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B95" t="s">
         <v>29</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B96" t="s">
         <v>29</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B97" t="s">
         <v>30</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B98" t="s">
         <v>30</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B99" t="s">
         <v>30</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B100" t="s">
         <v>30</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C101" t="s">
         <v>15</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B103" t="s">
         <v>2</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B104" t="s">
         <v>2</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C106" t="s">
         <v>9</v>
@@ -2679,10 +2679,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C107" t="s">
         <v>12</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A108" t="s">
+        <v>44</v>
+      </c>
+      <c r="B108" t="s">
         <v>45</v>
-      </c>
-      <c r="B108" t="s">
-        <v>46</v>
       </c>
       <c r="C108" t="s">
         <v>15</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A109" t="s">
+        <v>44</v>
+      </c>
+      <c r="B109" t="s">
         <v>45</v>
-      </c>
-      <c r="B109" t="s">
-        <v>46</v>
       </c>
       <c r="C109" t="s">
         <v>13</v>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A110" t="s">
+        <v>44</v>
+      </c>
+      <c r="B110" t="s">
         <v>45</v>
-      </c>
-      <c r="B110" t="s">
-        <v>46</v>
       </c>
       <c r="C110" t="s">
         <v>9</v>
@@ -2735,10 +2735,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C111" t="s">
         <v>15</v>
@@ -2749,10 +2749,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C112" t="s">
         <v>13</v>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A114" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B118" t="s">
         <v>8</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A119" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B121" t="s">
         <v>26</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B122" t="s">
         <v>26</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B123" t="s">
         <v>26</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B124" t="s">
         <v>26</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B125" t="s">
         <v>26</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B126" t="s">
         <v>10</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B127" t="s">
         <v>10</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A128" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B129" t="s">
         <v>28</v>
@@ -3001,10 +3001,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C130" t="s">
         <v>9</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B131" t="s">
         <v>29</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B132" t="s">
         <v>29</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A133" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B133" t="s">
         <v>30</v>
@@ -3057,10 +3057,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A134" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C134" t="s">
         <v>15</v>
@@ -3071,10 +3071,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A135" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C135" t="s">
         <v>12</v>
@@ -3085,10 +3085,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C136" t="s">
         <v>13</v>
@@ -3099,10 +3099,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C137" t="s">
         <v>9</v>
@@ -3113,10 +3113,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C138" t="s">
         <v>13</v>
@@ -3127,10 +3127,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C139" t="s">
         <v>9</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A146" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B146" t="s">
         <v>18</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A147" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A149" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
@@ -3298,7 +3298,7 @@
         <v>22</v>
       </c>
       <c r="B151" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C151" t="s">
         <v>9</v>
@@ -3312,7 +3312,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C152" t="s">
         <v>9</v>
@@ -3323,10 +3323,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A153" t="s">
+        <v>47</v>
+      </c>
+      <c r="B153" t="s">
         <v>48</v>
-      </c>
-      <c r="B153" t="s">
-        <v>49</v>
       </c>
       <c r="C153" t="s">
         <v>12</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A154" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B154" t="s">
         <v>29</v>
@@ -3424,7 +3424,7 @@
         <v>8</v>
       </c>
       <c r="B160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C160" t="s">
         <v>12</v>
@@ -3438,7 +3438,7 @@
         <v>8</v>
       </c>
       <c r="B161" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C161" t="s">
         <v>9</v>
@@ -3452,7 +3452,7 @@
         <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C162" t="s">
         <v>15</v>
@@ -3466,7 +3466,7 @@
         <v>8</v>
       </c>
       <c r="B163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C163" t="s">
         <v>4</v>
@@ -3480,7 +3480,7 @@
         <v>8</v>
       </c>
       <c r="B164" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C164" t="s">
         <v>17</v>
@@ -3494,7 +3494,7 @@
         <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C165" t="s">
         <v>19</v>
@@ -3508,7 +3508,7 @@
         <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C166" t="s">
         <v>12</v>
@@ -3522,7 +3522,7 @@
         <v>8</v>
       </c>
       <c r="B167" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C167" t="s">
         <v>13</v>
@@ -3690,7 +3690,7 @@
         <v>8</v>
       </c>
       <c r="B179" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C179" t="s">
         <v>15</v>
@@ -3704,7 +3704,7 @@
         <v>8</v>
       </c>
       <c r="B180" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C180" t="s">
         <v>9</v>
@@ -3718,7 +3718,7 @@
         <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C181" t="s">
         <v>9</v>
@@ -3732,7 +3732,7 @@
         <v>8</v>
       </c>
       <c r="B182" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C182" t="s">
         <v>12</v>
@@ -3788,7 +3788,7 @@
         <v>8</v>
       </c>
       <c r="B186" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C186" t="s">
         <v>9</v>
@@ -3830,7 +3830,7 @@
         <v>8</v>
       </c>
       <c r="B189" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C189" t="s">
         <v>9</v>
@@ -3900,7 +3900,7 @@
         <v>8</v>
       </c>
       <c r="B194" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C194" t="s">
         <v>12</v>
@@ -3956,7 +3956,7 @@
         <v>8</v>
       </c>
       <c r="B198" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C198" t="s">
         <v>15</v>
@@ -3970,7 +3970,7 @@
         <v>8</v>
       </c>
       <c r="B199" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C199" t="s">
         <v>4</v>
@@ -3984,7 +3984,7 @@
         <v>8</v>
       </c>
       <c r="B200" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C200" t="s">
         <v>9</v>
@@ -3998,7 +3998,7 @@
         <v>8</v>
       </c>
       <c r="B201" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C201" t="s">
         <v>17</v>
@@ -4012,7 +4012,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C202" t="s">
         <v>12</v>
@@ -4026,7 +4026,7 @@
         <v>8</v>
       </c>
       <c r="B203" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C203" t="s">
         <v>9</v>
@@ -4040,7 +4040,7 @@
         <v>8</v>
       </c>
       <c r="B204" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C204" t="s">
         <v>15</v>
@@ -4054,7 +4054,7 @@
         <v>8</v>
       </c>
       <c r="B205" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C205" t="s">
         <v>12</v>
@@ -4068,7 +4068,7 @@
         <v>8</v>
       </c>
       <c r="B206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C206" t="s">
         <v>13</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A225" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B225" t="s">
         <v>32</v>
@@ -4362,7 +4362,7 @@
         <v>23</v>
       </c>
       <c r="B227" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C227" t="s">
         <v>15</v>
@@ -4376,7 +4376,7 @@
         <v>23</v>
       </c>
       <c r="B228" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C228" t="s">
         <v>17</v>
@@ -4474,7 +4474,7 @@
         <v>24</v>
       </c>
       <c r="B235" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C235" t="s">
         <v>12</v>
@@ -4488,7 +4488,7 @@
         <v>24</v>
       </c>
       <c r="B236" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C236" t="s">
         <v>15</v>
@@ -4614,7 +4614,7 @@
         <v>24</v>
       </c>
       <c r="B245" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C245" t="s">
         <v>19</v>
@@ -4642,7 +4642,7 @@
         <v>3</v>
       </c>
       <c r="B247" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C247" t="s">
         <v>9</v>
@@ -4656,7 +4656,7 @@
         <v>3</v>
       </c>
       <c r="B248" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C248" t="s">
         <v>12</v>
@@ -4670,7 +4670,7 @@
         <v>3</v>
       </c>
       <c r="B249" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C249" t="s">
         <v>13</v>
@@ -4712,7 +4712,7 @@
         <v>3</v>
       </c>
       <c r="B252" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C252" t="s">
         <v>15</v>
@@ -4726,7 +4726,7 @@
         <v>3</v>
       </c>
       <c r="B253" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C253" t="s">
         <v>12</v>
@@ -4740,7 +4740,7 @@
         <v>3</v>
       </c>
       <c r="B254" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C254" t="s">
         <v>13</v>
@@ -4754,7 +4754,7 @@
         <v>3</v>
       </c>
       <c r="B255" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C255" t="s">
         <v>9</v>
@@ -4765,7 +4765,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A256" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B256" t="s">
         <v>18</v>
@@ -4894,7 +4894,7 @@
         <v>25</v>
       </c>
       <c r="B265" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C265" t="s">
         <v>15</v>
@@ -4908,7 +4908,7 @@
         <v>25</v>
       </c>
       <c r="B266" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C266" t="s">
         <v>4</v>
@@ -4922,7 +4922,7 @@
         <v>25</v>
       </c>
       <c r="B267" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C267" t="s">
         <v>17</v>
@@ -4936,7 +4936,7 @@
         <v>25</v>
       </c>
       <c r="B268" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C268" t="s">
         <v>12</v>
@@ -4950,7 +4950,7 @@
         <v>25</v>
       </c>
       <c r="B269" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C269" t="s">
         <v>9</v>
@@ -5062,7 +5062,7 @@
         <v>25</v>
       </c>
       <c r="B277" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C277" t="s">
         <v>9</v>
@@ -5076,7 +5076,7 @@
         <v>25</v>
       </c>
       <c r="B278" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C278" t="s">
         <v>9</v>
@@ -5090,7 +5090,7 @@
         <v>25</v>
       </c>
       <c r="B279" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C279" t="s">
         <v>15</v>
@@ -5104,7 +5104,7 @@
         <v>25</v>
       </c>
       <c r="B280" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C280" t="s">
         <v>4</v>
@@ -5118,7 +5118,7 @@
         <v>25</v>
       </c>
       <c r="B281" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C281" t="s">
         <v>17</v>
@@ -5132,7 +5132,7 @@
         <v>25</v>
       </c>
       <c r="B282" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C282" t="s">
         <v>12</v>
@@ -5146,7 +5146,7 @@
         <v>25</v>
       </c>
       <c r="B283" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C283" t="s">
         <v>13</v>
@@ -5160,7 +5160,7 @@
         <v>25</v>
       </c>
       <c r="B284" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C284" t="s">
         <v>9</v>
@@ -5300,7 +5300,7 @@
         <v>25</v>
       </c>
       <c r="B294" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C294" t="s">
         <v>15</v>
@@ -5314,7 +5314,7 @@
         <v>25</v>
       </c>
       <c r="B295" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C295" t="s">
         <v>4</v>
@@ -5328,7 +5328,7 @@
         <v>25</v>
       </c>
       <c r="B296" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C296" t="s">
         <v>12</v>
@@ -5342,7 +5342,7 @@
         <v>25</v>
       </c>
       <c r="B297" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C297" t="s">
         <v>9</v>
@@ -5412,7 +5412,7 @@
         <v>25</v>
       </c>
       <c r="B302" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C302" t="s">
         <v>15</v>
@@ -5426,7 +5426,7 @@
         <v>25</v>
       </c>
       <c r="B303" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C303" t="s">
         <v>4</v>
@@ -5440,7 +5440,7 @@
         <v>25</v>
       </c>
       <c r="B304" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C304" t="s">
         <v>17</v>
@@ -5454,7 +5454,7 @@
         <v>25</v>
       </c>
       <c r="B305" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C305" t="s">
         <v>12</v>
@@ -5468,7 +5468,7 @@
         <v>25</v>
       </c>
       <c r="B306" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C306" t="s">
         <v>9</v>
@@ -5524,7 +5524,7 @@
         <v>25</v>
       </c>
       <c r="B310" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C310" t="s">
         <v>9</v>
@@ -5566,7 +5566,7 @@
         <v>25</v>
       </c>
       <c r="B313" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C313" t="s">
         <v>19</v>
@@ -5580,7 +5580,7 @@
         <v>25</v>
       </c>
       <c r="B314" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C314" t="s">
         <v>15</v>
@@ -5594,7 +5594,7 @@
         <v>25</v>
       </c>
       <c r="B315" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C315" t="s">
         <v>12</v>
@@ -5650,7 +5650,7 @@
         <v>25</v>
       </c>
       <c r="B319" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C319" t="s">
         <v>13</v>
@@ -5734,7 +5734,7 @@
         <v>25</v>
       </c>
       <c r="B325" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C325" t="s">
         <v>15</v>
@@ -5748,7 +5748,7 @@
         <v>25</v>
       </c>
       <c r="B326" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C326" t="s">
         <v>4</v>
@@ -5762,7 +5762,7 @@
         <v>25</v>
       </c>
       <c r="B327" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C327" t="s">
         <v>17</v>
@@ -5776,7 +5776,7 @@
         <v>25</v>
       </c>
       <c r="B328" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C328" t="s">
         <v>12</v>
@@ -5790,7 +5790,7 @@
         <v>25</v>
       </c>
       <c r="B329" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C329" t="s">
         <v>13</v>
@@ -5804,7 +5804,7 @@
         <v>25</v>
       </c>
       <c r="B330" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C330" t="s">
         <v>9</v>
@@ -5972,7 +5972,7 @@
         <v>25</v>
       </c>
       <c r="B342" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C342" t="s">
         <v>12</v>
@@ -5986,7 +5986,7 @@
         <v>25</v>
       </c>
       <c r="B343" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C343" t="s">
         <v>17</v>
@@ -6000,7 +6000,7 @@
         <v>25</v>
       </c>
       <c r="B344" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C344" t="s">
         <v>12</v>
@@ -6014,7 +6014,7 @@
         <v>25</v>
       </c>
       <c r="B345" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C345" t="s">
         <v>9</v>
@@ -6056,7 +6056,7 @@
         <v>25</v>
       </c>
       <c r="B348" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C348" t="s">
         <v>17</v>
@@ -6070,7 +6070,7 @@
         <v>25</v>
       </c>
       <c r="B349" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C349" t="s">
         <v>12</v>
@@ -6084,7 +6084,7 @@
         <v>25</v>
       </c>
       <c r="B350" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C350" t="s">
         <v>9</v>
@@ -6126,7 +6126,7 @@
         <v>25</v>
       </c>
       <c r="B353" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C353" t="s">
         <v>15</v>
@@ -6140,7 +6140,7 @@
         <v>25</v>
       </c>
       <c r="B354" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C354" t="s">
         <v>4</v>
@@ -6154,7 +6154,7 @@
         <v>25</v>
       </c>
       <c r="B355" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C355" t="s">
         <v>17</v>
@@ -6168,7 +6168,7 @@
         <v>25</v>
       </c>
       <c r="B356" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C356" t="s">
         <v>12</v>
@@ -6182,7 +6182,7 @@
         <v>25</v>
       </c>
       <c r="B357" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C357" t="s">
         <v>13</v>
@@ -6196,7 +6196,7 @@
         <v>25</v>
       </c>
       <c r="B358" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C358" t="s">
         <v>9</v>
@@ -6266,7 +6266,7 @@
         <v>25</v>
       </c>
       <c r="B363" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C363" t="s">
         <v>15</v>
@@ -6322,7 +6322,7 @@
         <v>26</v>
       </c>
       <c r="B367" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C367" t="s">
         <v>9</v>
@@ -6336,7 +6336,7 @@
         <v>26</v>
       </c>
       <c r="B368" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C368" t="s">
         <v>15</v>
@@ -6350,7 +6350,7 @@
         <v>26</v>
       </c>
       <c r="B369" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C369" t="s">
         <v>17</v>
@@ -6364,7 +6364,7 @@
         <v>26</v>
       </c>
       <c r="B370" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C370" t="s">
         <v>19</v>
@@ -6378,7 +6378,7 @@
         <v>26</v>
       </c>
       <c r="B371" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C371" t="s">
         <v>13</v>
@@ -6392,7 +6392,7 @@
         <v>26</v>
       </c>
       <c r="B372" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C372" t="s">
         <v>9</v>
@@ -6518,7 +6518,7 @@
         <v>26</v>
       </c>
       <c r="B381" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C381" t="s">
         <v>15</v>
@@ -6546,7 +6546,7 @@
         <v>26</v>
       </c>
       <c r="B383" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C383" t="s">
         <v>15</v>
@@ -6560,7 +6560,7 @@
         <v>26</v>
       </c>
       <c r="B384" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C384" t="s">
         <v>12</v>
@@ -6574,7 +6574,7 @@
         <v>26</v>
       </c>
       <c r="B385" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C385" t="s">
         <v>13</v>
@@ -6588,7 +6588,7 @@
         <v>26</v>
       </c>
       <c r="B386" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C386" t="s">
         <v>9</v>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A393" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B393" t="s">
         <v>8</v>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A394" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B394" t="s">
         <v>8</v>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A395" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B395" t="s">
         <v>18</v>
@@ -6725,7 +6725,7 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A396" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B396" t="s">
         <v>18</v>
@@ -6739,7 +6739,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A397" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B397" t="s">
         <v>18</v>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A398" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B398" t="s">
         <v>29</v>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A399" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B399" t="s">
         <v>30</v>
@@ -6781,7 +6781,7 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A400" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B400" t="s">
         <v>30</v>
@@ -6826,7 +6826,7 @@
         <v>27</v>
       </c>
       <c r="B403" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C403" t="s">
         <v>15</v>
@@ -6840,7 +6840,7 @@
         <v>27</v>
       </c>
       <c r="B404" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C404" t="s">
         <v>17</v>
@@ -6854,7 +6854,7 @@
         <v>27</v>
       </c>
       <c r="B405" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C405" t="s">
         <v>12</v>
@@ -6868,7 +6868,7 @@
         <v>27</v>
       </c>
       <c r="B406" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C406" t="s">
         <v>9</v>
@@ -6896,7 +6896,7 @@
         <v>10</v>
       </c>
       <c r="B408" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C408" t="s">
         <v>15</v>
@@ -6910,7 +6910,7 @@
         <v>10</v>
       </c>
       <c r="B409" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C409" t="s">
         <v>9</v>
@@ -6938,7 +6938,7 @@
         <v>10</v>
       </c>
       <c r="B411" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C411" t="s">
         <v>9</v>
@@ -6966,7 +6966,7 @@
         <v>10</v>
       </c>
       <c r="B413" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C413" t="s">
         <v>15</v>
@@ -6980,7 +6980,7 @@
         <v>10</v>
       </c>
       <c r="B414" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C414" t="s">
         <v>9</v>
@@ -7022,7 +7022,7 @@
         <v>10</v>
       </c>
       <c r="B417" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C417" t="s">
         <v>13</v>
@@ -7064,7 +7064,7 @@
         <v>10</v>
       </c>
       <c r="B420" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C420" t="s">
         <v>15</v>
@@ -7078,7 +7078,7 @@
         <v>10</v>
       </c>
       <c r="B421" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C421" t="s">
         <v>9</v>
@@ -7274,7 +7274,7 @@
         <v>10</v>
       </c>
       <c r="B435" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C435" t="s">
         <v>13</v>
@@ -7316,7 +7316,7 @@
         <v>10</v>
       </c>
       <c r="B438" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C438" t="s">
         <v>15</v>
@@ -7330,7 +7330,7 @@
         <v>10</v>
       </c>
       <c r="B439" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C439" t="s">
         <v>13</v>
@@ -7358,7 +7358,7 @@
         <v>28</v>
       </c>
       <c r="B441" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C441" t="s">
         <v>9</v>
@@ -7372,7 +7372,7 @@
         <v>28</v>
       </c>
       <c r="B442" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C442" t="s">
         <v>15</v>
@@ -7498,7 +7498,7 @@
         <v>28</v>
       </c>
       <c r="B451" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C451" t="s">
         <v>15</v>
@@ -7554,7 +7554,7 @@
         <v>28</v>
       </c>
       <c r="B455" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C455" t="s">
         <v>9</v>
@@ -7565,10 +7565,10 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A456" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B456" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C456" t="s">
         <v>9</v>
@@ -7579,7 +7579,7 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A457" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B457" t="s">
         <v>10</v>
@@ -7593,7 +7593,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A458" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B458" t="s">
         <v>28</v>
@@ -7607,10 +7607,10 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A459" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B459" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C459" t="s">
         <v>15</v>
@@ -7621,10 +7621,10 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A460" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B460" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C460" t="s">
         <v>12</v>
@@ -7635,10 +7635,10 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A461" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B461" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C461" t="s">
         <v>13</v>
@@ -7649,10 +7649,10 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A462" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B462" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C462" t="s">
         <v>9</v>
@@ -7663,7 +7663,7 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A463" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B463" t="s">
         <v>29</v>
@@ -7677,7 +7677,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A464" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B464" t="s">
         <v>29</v>
@@ -7691,7 +7691,7 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A465" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B465" t="s">
         <v>30</v>
@@ -7705,10 +7705,10 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A466" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B466" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C466" t="s">
         <v>9</v>
@@ -7722,7 +7722,7 @@
         <v>29</v>
       </c>
       <c r="B467" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C467" t="s">
         <v>13</v>
@@ -7736,7 +7736,7 @@
         <v>29</v>
       </c>
       <c r="B468" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C468" t="s">
         <v>9</v>
@@ -7778,7 +7778,7 @@
         <v>29</v>
       </c>
       <c r="B471" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C471" t="s">
         <v>4</v>
@@ -7792,7 +7792,7 @@
         <v>29</v>
       </c>
       <c r="B472" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C472" t="s">
         <v>19</v>
@@ -7806,7 +7806,7 @@
         <v>29</v>
       </c>
       <c r="B473" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C473" t="s">
         <v>12</v>
@@ -7820,7 +7820,7 @@
         <v>29</v>
       </c>
       <c r="B474" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C474" t="s">
         <v>9</v>
@@ -7876,7 +7876,7 @@
         <v>29</v>
       </c>
       <c r="B478" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C478" t="s">
         <v>4</v>
@@ -7890,7 +7890,7 @@
         <v>29</v>
       </c>
       <c r="B479" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C479" t="s">
         <v>17</v>
@@ -7904,7 +7904,7 @@
         <v>29</v>
       </c>
       <c r="B480" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C480" t="s">
         <v>17</v>
@@ -7918,7 +7918,7 @@
         <v>29</v>
       </c>
       <c r="B481" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C481" t="s">
         <v>4</v>
@@ -8016,7 +8016,7 @@
         <v>29</v>
       </c>
       <c r="B488" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C488" t="s">
         <v>4</v>
@@ -8030,7 +8030,7 @@
         <v>29</v>
       </c>
       <c r="B489" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C489" t="s">
         <v>19</v>
@@ -8044,7 +8044,7 @@
         <v>29</v>
       </c>
       <c r="B490" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C490" t="s">
         <v>12</v>
@@ -8058,7 +8058,7 @@
         <v>29</v>
       </c>
       <c r="B491" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C491" t="s">
         <v>9</v>
@@ -8072,7 +8072,7 @@
         <v>29</v>
       </c>
       <c r="B492" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C492" t="s">
         <v>4</v>
@@ -8086,7 +8086,7 @@
         <v>29</v>
       </c>
       <c r="B493" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C493" t="s">
         <v>12</v>
@@ -8100,7 +8100,7 @@
         <v>29</v>
       </c>
       <c r="B494" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C494" t="s">
         <v>9</v>
@@ -8156,7 +8156,7 @@
         <v>29</v>
       </c>
       <c r="B498" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C498" t="s">
         <v>12</v>
@@ -8170,7 +8170,7 @@
         <v>29</v>
       </c>
       <c r="B499" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C499" t="s">
         <v>9</v>
@@ -8184,7 +8184,7 @@
         <v>29</v>
       </c>
       <c r="B500" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C500" t="s">
         <v>12</v>
@@ -8198,7 +8198,7 @@
         <v>30</v>
       </c>
       <c r="B501" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C501" t="s">
         <v>15</v>
@@ -8212,7 +8212,7 @@
         <v>30</v>
       </c>
       <c r="B502" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C502" t="s">
         <v>12</v>
@@ -8226,7 +8226,7 @@
         <v>30</v>
       </c>
       <c r="B503" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C503" t="s">
         <v>9</v>
@@ -8254,7 +8254,7 @@
         <v>30</v>
       </c>
       <c r="B505" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C505" t="s">
         <v>9</v>
@@ -8310,7 +8310,7 @@
         <v>30</v>
       </c>
       <c r="B509" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C509" t="s">
         <v>15</v>
@@ -8324,7 +8324,7 @@
         <v>30</v>
       </c>
       <c r="B510" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C510" t="s">
         <v>4</v>
@@ -8338,7 +8338,7 @@
         <v>30</v>
       </c>
       <c r="B511" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C511" t="s">
         <v>12</v>
@@ -8352,7 +8352,7 @@
         <v>30</v>
       </c>
       <c r="B512" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C512" t="s">
         <v>13</v>
@@ -8366,7 +8366,7 @@
         <v>30</v>
       </c>
       <c r="B513" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C513" t="s">
         <v>9</v>
@@ -8380,7 +8380,7 @@
         <v>30</v>
       </c>
       <c r="B514" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C514" t="s">
         <v>9</v>
@@ -8422,7 +8422,7 @@
         <v>30</v>
       </c>
       <c r="B517" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C517" t="s">
         <v>9</v>
@@ -8436,7 +8436,7 @@
         <v>31</v>
       </c>
       <c r="B518" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C518" t="s">
         <v>15</v>
@@ -8520,7 +8520,7 @@
         <v>31</v>
       </c>
       <c r="B524" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C524" t="s">
         <v>15</v>
@@ -8534,7 +8534,7 @@
         <v>31</v>
       </c>
       <c r="B525" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C525" t="s">
         <v>12</v>
@@ -8576,7 +8576,7 @@
         <v>14</v>
       </c>
       <c r="B528" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C528" t="s">
         <v>9</v>
@@ -8590,7 +8590,7 @@
         <v>32</v>
       </c>
       <c r="B529" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C529" t="s">
         <v>12</v>
@@ -8601,7 +8601,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A530" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B530" t="s">
         <v>7</v>
@@ -8615,7 +8615,7 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A531" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B531" t="s">
         <v>8</v>
@@ -8629,7 +8629,7 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A532" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B532" t="s">
         <v>23</v>
@@ -8643,10 +8643,10 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A533" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B533" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C533" t="s">
         <v>15</v>
@@ -8657,10 +8657,10 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A534" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B534" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C534" t="s">
         <v>17</v>
@@ -8671,10 +8671,10 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A535" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B535" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C535" t="s">
         <v>9</v>
@@ -8685,7 +8685,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A536" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B536" t="s">
         <v>10</v>
@@ -8699,7 +8699,7 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A537" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B537" t="s">
         <v>10</v>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A538" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B538" t="s">
         <v>14</v>
@@ -8727,7 +8727,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A539" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B539" t="s">
         <v>2</v>
@@ -8741,7 +8741,7 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A540" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B540" t="s">
         <v>2</v>
@@ -8755,10 +8755,10 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A541" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B541" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C541" t="s">
         <v>15</v>
@@ -8769,10 +8769,10 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A542" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B542" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C542" t="s">
         <v>17</v>
@@ -8783,10 +8783,10 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A543" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B543" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C543" t="s">
         <v>13</v>
@@ -8797,10 +8797,10 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A544" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B544" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C544" t="s">
         <v>9</v>
@@ -8811,7 +8811,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A545" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B545" t="s">
         <v>8</v>
@@ -8825,7 +8825,7 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A546" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B546" t="s">
         <v>3</v>
@@ -8839,7 +8839,7 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A547" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B547" t="s">
         <v>3</v>
@@ -8853,7 +8853,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A548" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B548" t="s">
         <v>3</v>
@@ -8867,7 +8867,7 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A549" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B549" t="s">
         <v>3</v>
@@ -8881,7 +8881,7 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A550" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B550" t="s">
         <v>3</v>
@@ -8895,7 +8895,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A551" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B551" t="s">
         <v>26</v>
@@ -8909,7 +8909,7 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A552" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B552" t="s">
         <v>26</v>
@@ -8923,7 +8923,7 @@
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A553" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B553" t="s">
         <v>10</v>
@@ -8937,7 +8937,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A554" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B554" t="s">
         <v>29</v>
@@ -8951,7 +8951,7 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A555" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B555" t="s">
         <v>5</v>
@@ -8965,7 +8965,7 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A556" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B556" t="s">
         <v>5</v>
@@ -8979,7 +8979,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A557" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B557" t="s">
         <v>5</v>
@@ -8993,7 +8993,7 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A558" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B558" t="s">
         <v>6</v>
@@ -9007,7 +9007,7 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A559" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B559" t="s">
         <v>22</v>
@@ -9024,7 +9024,7 @@
         <v>5</v>
       </c>
       <c r="B560" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C560" t="s">
         <v>15</v>
@@ -9038,7 +9038,7 @@
         <v>5</v>
       </c>
       <c r="B561" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C561" t="s">
         <v>4</v>
@@ -9052,7 +9052,7 @@
         <v>5</v>
       </c>
       <c r="B562" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C562" t="s">
         <v>13</v>
@@ -9066,7 +9066,7 @@
         <v>5</v>
       </c>
       <c r="B563" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C563" t="s">
         <v>9</v>
@@ -9080,7 +9080,7 @@
         <v>5</v>
       </c>
       <c r="B564" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C564" t="s">
         <v>13</v>
@@ -9248,7 +9248,7 @@
         <v>5</v>
       </c>
       <c r="B576" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C576" t="s">
         <v>17</v>
@@ -9262,7 +9262,7 @@
         <v>5</v>
       </c>
       <c r="B577" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C577" t="s">
         <v>13</v>
@@ -9276,7 +9276,7 @@
         <v>5</v>
       </c>
       <c r="B578" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C578" t="s">
         <v>15</v>
@@ -9290,7 +9290,7 @@
         <v>5</v>
       </c>
       <c r="B579" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C579" t="s">
         <v>13</v>
@@ -9304,7 +9304,7 @@
         <v>5</v>
       </c>
       <c r="B580" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C580" t="s">
         <v>9</v>
@@ -9318,7 +9318,7 @@
         <v>5</v>
       </c>
       <c r="B581" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C581" t="s">
         <v>15</v>
@@ -9430,7 +9430,7 @@
         <v>6</v>
       </c>
       <c r="B589" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C589" t="s">
         <v>15</v>
@@ -9444,7 +9444,7 @@
         <v>6</v>
       </c>
       <c r="B590" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C590" t="s">
         <v>13</v>
@@ -9528,7 +9528,7 @@
         <v>6</v>
       </c>
       <c r="B596" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C596" t="s">
         <v>15</v>
@@ -9542,7 +9542,7 @@
         <v>6</v>
       </c>
       <c r="B597" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C597" t="s">
         <v>13</v>
@@ -9556,7 +9556,7 @@
         <v>6</v>
       </c>
       <c r="B598" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C598" t="s">
         <v>4</v>
@@ -9570,7 +9570,7 @@
         <v>6</v>
       </c>
       <c r="B599" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C599" t="s">
         <v>13</v>
@@ -9609,10 +9609,10 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A602" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B602" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C602" t="s">
         <v>9</v>
@@ -9623,10 +9623,10 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A603" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B603" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C603" t="s">
         <v>12</v>
@@ -9637,10 +9637,10 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A604" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B604" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C604" t="s">
         <v>12</v>
@@ -9651,7 +9651,7 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A605" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B605" t="s">
         <v>29</v>
@@ -9665,7 +9665,7 @@
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A606" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B606" t="s">
         <v>16</v>
@@ -9679,7 +9679,7 @@
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A607" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B607" t="s">
         <v>16</v>
